--- a/Outputs/Ecuador/dataPoints.xlsx
+++ b/Outputs/Ecuador/dataPoints.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15280" uniqueCount="3339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15280" uniqueCount="3343">
   <si>
     <t>country</t>
   </si>
@@ -9993,13 +9993,25 @@
     <t>empty_value</t>
   </si>
   <si>
+    <t>53%</t>
+  </si>
+  <si>
     <t>45%</t>
   </si>
   <si>
     <t>17%</t>
   </si>
   <si>
-    <t>53%</t>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>42%</t>
   </si>
   <si>
     <t>avg</t>
@@ -64025,7 +64037,7 @@
         <v>158</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4537688442211055</v>
+        <v>0.5347912524850894</v>
       </c>
       <c r="E2" t="n">
         <v>1.15</v>
@@ -64048,7 +64060,7 @@
         <v>3310</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5462311557788945</v>
+        <v>0.4652087475149106</v>
       </c>
       <c r="E3" t="n">
         <v>1.15</v>
@@ -64071,7 +64083,7 @@
         <v>158</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4352409638554217</v>
+        <v>0.4921259842519685</v>
       </c>
       <c r="E4" t="n">
         <v>2.15</v>
@@ -64080,7 +64092,7 @@
         <v>1.0</v>
       </c>
       <c r="G4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5">
@@ -64094,7 +64106,7 @@
         <v>3310</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5647590361445782</v>
+        <v>0.5078740157480315</v>
       </c>
       <c r="E5" t="n">
         <v>2.15</v>
@@ -64117,7 +64129,7 @@
         <v>158</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3851963746223565</v>
+        <v>0.4495049504950495</v>
       </c>
       <c r="E6" t="n">
         <v>3.15</v>
@@ -64126,7 +64138,7 @@
         <v>1.0</v>
       </c>
       <c r="G6" t="s">
-        <v>195</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="7">
@@ -64140,7 +64152,7 @@
         <v>3310</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6148036253776434</v>
+        <v>0.5504950495049505</v>
       </c>
       <c r="E7" t="n">
         <v>3.15</v>
@@ -64163,7 +64175,7 @@
         <v>158</v>
       </c>
       <c r="D8" t="n">
-        <v>0.17293997965412003</v>
+        <v>0.1719077568134172</v>
       </c>
       <c r="E8" t="n">
         <v>1.1</v>
@@ -64172,7 +64184,7 @@
         <v>1.0</v>
       </c>
       <c r="G8" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="9">
@@ -64186,7 +64198,7 @@
         <v>3310</v>
       </c>
       <c r="D9" t="n">
-        <v>0.82706002034588</v>
+        <v>0.8280922431865828</v>
       </c>
       <c r="E9" t="n">
         <v>1.1</v>
@@ -64209,7 +64221,7 @@
         <v>158</v>
       </c>
       <c r="D10" t="n">
-        <v>0.39607448414695523</v>
+        <v>0.42574257425742573</v>
       </c>
       <c r="E10" t="n">
         <v>2.15</v>
@@ -64218,7 +64230,7 @@
         <v>1.0</v>
       </c>
       <c r="G10" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11">
@@ -64232,7 +64244,7 @@
         <v>3310</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6039255158530448</v>
+        <v>0.5742574257425743</v>
       </c>
       <c r="E11" t="n">
         <v>2.15</v>
@@ -64255,7 +64267,7 @@
         <v>158</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24681285058643548</v>
+        <v>0.2097457627118644</v>
       </c>
       <c r="E12" t="n">
         <v>3.15</v>
@@ -64264,7 +64276,7 @@
         <v>1.0</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
@@ -64278,7 +64290,7 @@
         <v>3310</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7531871494135645</v>
+        <v>0.7902542372881356</v>
       </c>
       <c r="E13" t="n">
         <v>3.15</v>
@@ -64301,7 +64313,7 @@
         <v>158</v>
       </c>
       <c r="D14" t="n">
-        <v>0.23783241344706474</v>
+        <v>0.24308300395256918</v>
       </c>
       <c r="E14" t="n">
         <v>4.15</v>
@@ -64324,7 +64336,7 @@
         <v>3310</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7621675865529353</v>
+        <v>0.7569169960474308</v>
       </c>
       <c r="E15" t="n">
         <v>4.15</v>
@@ -64347,7 +64359,7 @@
         <v>158</v>
       </c>
       <c r="D16" t="n">
-        <v>0.24646464646464647</v>
+        <v>0.2860125260960334</v>
       </c>
       <c r="E16" t="n">
         <v>1.15</v>
@@ -64356,7 +64368,7 @@
         <v>1.0</v>
       </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
@@ -64370,7 +64382,7 @@
         <v>3310</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7535353535353535</v>
+        <v>0.7139874739039667</v>
       </c>
       <c r="E17" t="n">
         <v>1.15</v>
@@ -64393,7 +64405,7 @@
         <v>158</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3967446592065107</v>
+        <v>0.3945720250521921</v>
       </c>
       <c r="E18" t="n">
         <v>2.15</v>
@@ -64402,7 +64414,7 @@
         <v>1.0</v>
       </c>
       <c r="G18" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
@@ -64416,7 +64428,7 @@
         <v>3310</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6032553407934893</v>
+        <v>0.605427974947808</v>
       </c>
       <c r="E19" t="n">
         <v>2.15</v>
@@ -64439,7 +64451,7 @@
         <v>158</v>
       </c>
       <c r="D20" t="n">
-        <v>0.26431492842535786</v>
+        <v>0.310126582278481</v>
       </c>
       <c r="E20" t="n">
         <v>3.15</v>
@@ -64448,7 +64460,7 @@
         <v>1.0</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21">
@@ -64462,7 +64474,7 @@
         <v>3310</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7356850715746421</v>
+        <v>0.689873417721519</v>
       </c>
       <c r="E21" t="n">
         <v>3.15</v>
@@ -64485,7 +64497,7 @@
         <v>158</v>
       </c>
       <c r="D22" t="n">
-        <v>0.532565130260521</v>
+        <v>0.6309523809523809</v>
       </c>
       <c r="E22" t="n">
         <v>4.15</v>
@@ -64494,7 +64506,7 @@
         <v>1.0</v>
       </c>
       <c r="G22" t="s">
-        <v>3313</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23">
@@ -64508,7 +64520,7 @@
         <v>3310</v>
       </c>
       <c r="D23" t="n">
-        <v>0.467434869739479</v>
+        <v>0.36904761904761907</v>
       </c>
       <c r="E23" t="n">
         <v>4.15</v>
@@ -64531,7 +64543,7 @@
         <v>158</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3918640576725026</v>
+        <v>0.3650465356773526</v>
       </c>
       <c r="E24" t="n">
         <v>1.15</v>
@@ -64540,7 +64552,7 @@
         <v>1.0</v>
       </c>
       <c r="G24" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
@@ -64554,7 +64566,7 @@
         <v>3310</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6081359423274975</v>
+        <v>0.6349534643226473</v>
       </c>
       <c r="E25" t="n">
         <v>1.15</v>
@@ -64577,7 +64589,7 @@
         <v>158</v>
       </c>
       <c r="D26" t="n">
-        <v>0.521805661820964</v>
+        <v>0.6252545824847251</v>
       </c>
       <c r="E26" t="n">
         <v>2.15</v>
@@ -64586,7 +64598,7 @@
         <v>1.0</v>
       </c>
       <c r="G26" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27">
@@ -64600,7 +64612,7 @@
         <v>3310</v>
       </c>
       <c r="D27" t="n">
-        <v>0.478194338179036</v>
+        <v>0.3747454175152749</v>
       </c>
       <c r="E27" t="n">
         <v>2.15</v>
@@ -64623,7 +64635,7 @@
         <v>158</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4097898513582778</v>
+        <v>0.35263702171664946</v>
       </c>
       <c r="E28" t="n">
         <v>3.15</v>
@@ -64632,7 +64644,7 @@
         <v>1.0</v>
       </c>
       <c r="G28" t="s">
-        <v>199</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="29">
@@ -64646,7 +64658,7 @@
         <v>3310</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5902101486417222</v>
+        <v>0.6473629782833505</v>
       </c>
       <c r="E29" t="n">
         <v>3.15</v>
@@ -64669,7 +64681,7 @@
         <v>158</v>
       </c>
       <c r="D30" t="n">
-        <v>0.595134443021767</v>
+        <v>0.6156217882836588</v>
       </c>
       <c r="E30" t="n">
         <v>4.15</v>
@@ -64678,7 +64690,7 @@
         <v>1.0</v>
       </c>
       <c r="G30" t="s">
-        <v>175</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="31">
@@ -64692,7 +64704,7 @@
         <v>3310</v>
       </c>
       <c r="D31" t="n">
-        <v>0.404865556978233</v>
+        <v>0.38437821171634123</v>
       </c>
       <c r="E31" t="n">
         <v>4.15</v>
@@ -64715,7 +64727,7 @@
         <v>158</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5161125319693095</v>
+        <v>0.512846865364851</v>
       </c>
       <c r="E32" t="n">
         <v>5.15</v>
@@ -64724,7 +64736,7 @@
         <v>1.0</v>
       </c>
       <c r="G32" t="s">
-        <v>142</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="33">
@@ -64738,7 +64750,7 @@
         <v>3310</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4838874680306905</v>
+        <v>0.487153134635149</v>
       </c>
       <c r="E33" t="n">
         <v>5.15</v>
@@ -64761,7 +64773,7 @@
         <v>158</v>
       </c>
       <c r="D34" t="n">
-        <v>0.34220436856640724</v>
+        <v>0.42105263157894735</v>
       </c>
       <c r="E34" t="n">
         <v>1.15</v>
@@ -64770,7 +64782,7 @@
         <v>1.0</v>
       </c>
       <c r="G34" t="s">
-        <v>3244</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="35">
@@ -64784,7 +64796,7 @@
         <v>3310</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6577956314335928</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E35" t="n">
         <v>1.15</v>
@@ -64807,7 +64819,7 @@
         <v>158</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4035897435897436</v>
+        <v>0.3987730061349693</v>
       </c>
       <c r="E36" t="n">
         <v>2.15</v>
@@ -64830,7 +64842,7 @@
         <v>3310</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5964102564102565</v>
+        <v>0.6012269938650308</v>
       </c>
       <c r="E37" t="n">
         <v>2.15</v>
@@ -64853,7 +64865,7 @@
         <v>158</v>
       </c>
       <c r="D38" t="n">
-        <v>0.45426195426195426</v>
+        <v>0.48132780082987553</v>
       </c>
       <c r="E38" t="n">
         <v>3.15</v>
@@ -64862,7 +64874,7 @@
         <v>1.0</v>
       </c>
       <c r="G38" t="s">
-        <v>3311</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39">
@@ -64876,7 +64888,7 @@
         <v>3310</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5457380457380457</v>
+        <v>0.5186721991701244</v>
       </c>
       <c r="E39" t="n">
         <v>3.15</v>
@@ -64899,7 +64911,7 @@
         <v>158</v>
       </c>
       <c r="D40" t="n">
-        <v>0.26267748478701824</v>
+        <v>0.21084337349397592</v>
       </c>
       <c r="E40" t="n">
         <v>4.15</v>
@@ -64908,7 +64920,7 @@
         <v>1.0</v>
       </c>
       <c r="G40" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41">
@@ -64922,7 +64934,7 @@
         <v>3310</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7373225152129818</v>
+        <v>0.7891566265060241</v>
       </c>
       <c r="E41" t="n">
         <v>4.15</v>
@@ -64945,7 +64957,7 @@
         <v>158</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2710257050162216</v>
+        <v>0.3336673346693387</v>
       </c>
       <c r="E42" t="n">
         <v>1.15</v>
@@ -64954,7 +64966,7 @@
         <v>1.0</v>
       </c>
       <c r="G42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43">
@@ -64968,7 +64980,7 @@
         <v>3310</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7289742949837784</v>
+        <v>0.6663326653306614</v>
       </c>
       <c r="E43" t="n">
         <v>1.15</v>
@@ -64991,7 +65003,7 @@
         <v>158</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4145176695319962</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="E44" t="n">
         <v>2.15</v>
@@ -65014,7 +65026,7 @@
         <v>3310</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5854823304680038</v>
+        <v>0.5853658536585367</v>
       </c>
       <c r="E45" t="n">
         <v>2.15</v>
@@ -65037,7 +65049,7 @@
         <v>158</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2998236331569665</v>
+        <v>0.2137791286727457</v>
       </c>
       <c r="E46" t="n">
         <v>3.15</v>
@@ -65046,7 +65058,7 @@
         <v>1.0</v>
       </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47">
@@ -65060,7 +65072,7 @@
         <v>3310</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7001763668430335</v>
+        <v>0.7862208713272543</v>
       </c>
       <c r="E47" t="n">
         <v>3.15</v>
@@ -65083,7 +65095,7 @@
         <v>158</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4062186559679037</v>
+        <v>0.4765625</v>
       </c>
       <c r="E48" t="n">
         <v>4.15</v>
@@ -65092,7 +65104,7 @@
         <v>1.0</v>
       </c>
       <c r="G48" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49">
@@ -65106,7 +65118,7 @@
         <v>3310</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5937813440320963</v>
+        <v>0.5234375</v>
       </c>
       <c r="E49" t="n">
         <v>4.15</v>
@@ -65129,7 +65141,7 @@
         <v>158</v>
       </c>
       <c r="D50" t="n">
-        <v>0.25114854517611024</v>
+        <v>0.35355648535564854</v>
       </c>
       <c r="E50" t="n">
         <v>1.15</v>
@@ -65138,7 +65150,7 @@
         <v>1.0</v>
       </c>
       <c r="G50" t="s">
-        <v>129</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="51">
@@ -65152,7 +65164,7 @@
         <v>3310</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7488514548238898</v>
+        <v>0.6464435146443515</v>
       </c>
       <c r="E51" t="n">
         <v>1.15</v>
@@ -65175,7 +65187,7 @@
         <v>158</v>
       </c>
       <c r="D52" t="n">
-        <v>0.31310555838857723</v>
+        <v>0.3425531914893617</v>
       </c>
       <c r="E52" t="n">
         <v>2.15</v>
@@ -65184,7 +65196,7 @@
         <v>1.0</v>
       </c>
       <c r="G52" t="s">
-        <v>127</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="53">
@@ -65198,7 +65210,7 @@
         <v>3310</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6868944416114228</v>
+        <v>0.6574468085106383</v>
       </c>
       <c r="E53" t="n">
         <v>2.15</v>
@@ -65221,7 +65233,7 @@
         <v>158</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3181118522319138</v>
+        <v>0.33192389006342493</v>
       </c>
       <c r="E54" t="n">
         <v>3.15</v>
@@ -65230,7 +65242,7 @@
         <v>1.0</v>
       </c>
       <c r="G54" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55">
@@ -65244,7 +65256,7 @@
         <v>3310</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6818881477680863</v>
+        <v>0.6680761099365751</v>
       </c>
       <c r="E55" t="n">
         <v>3.15</v>
@@ -65267,7 +65279,7 @@
         <v>158</v>
       </c>
       <c r="D56" t="n">
-        <v>0.24693877551020407</v>
+        <v>0.28870292887029286</v>
       </c>
       <c r="E56" t="n">
         <v>4.15</v>
@@ -65276,7 +65288,7 @@
         <v>1.0</v>
       </c>
       <c r="G56" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57">
@@ -65290,7 +65302,7 @@
         <v>3310</v>
       </c>
       <c r="D57" t="n">
-        <v>0.753061224489796</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="E57" t="n">
         <v>4.15</v>
@@ -65321,10 +65333,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3314</v>
+        <v>3318</v>
       </c>
       <c r="D1" t="s">
-        <v>3315</v>
+        <v>3319</v>
       </c>
       <c r="E1" t="s">
         <v>308</v>
@@ -65338,19 +65350,19 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3316</v>
+        <v>3320</v>
       </c>
       <c r="C2" t="n">
         <v>0.2229299363057325</v>
       </c>
       <c r="D2" t="s">
-        <v>3327</v>
+        <v>3331</v>
       </c>
       <c r="E2" t="n">
         <v>1.0</v>
       </c>
       <c r="F2" t="s">
-        <v>3328</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="3">
@@ -65358,7 +65370,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3317</v>
+        <v>3321</v>
       </c>
       <c r="C3" t="n">
         <v>0.24101479915433405</v>
@@ -65370,7 +65382,7 @@
         <v>2.0</v>
       </c>
       <c r="F3" t="s">
-        <v>3329</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="4">
@@ -65378,7 +65390,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3318</v>
+        <v>3322</v>
       </c>
       <c r="C4" t="n">
         <v>0.24308300395256918</v>
@@ -65390,7 +65402,7 @@
         <v>3.0</v>
       </c>
       <c r="F4" t="s">
-        <v>3330</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="5">
@@ -65398,7 +65410,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3319</v>
+        <v>3323</v>
       </c>
       <c r="C5" t="n">
         <v>0.28313253012048195</v>
@@ -65410,7 +65422,7 @@
         <v>4.0</v>
       </c>
       <c r="F5" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="6">
@@ -65418,7 +65430,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>3320</v>
+        <v>3324</v>
       </c>
       <c r="C6" t="n">
         <v>0.25667351129363447</v>
@@ -65430,7 +65442,7 @@
         <v>5.0</v>
       </c>
       <c r="F6" t="s">
-        <v>3332</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="7">
@@ -65438,7 +65450,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>3321</v>
+        <v>3325</v>
       </c>
       <c r="C7" t="n">
         <v>0.26534653465346536</v>
@@ -65450,7 +65462,7 @@
         <v>6.0</v>
       </c>
       <c r="F7" t="s">
-        <v>3333</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="8">
@@ -65458,7 +65470,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>3322</v>
+        <v>3326</v>
       </c>
       <c r="C8" t="n">
         <v>0.4305835010060362</v>
@@ -65470,7 +65482,7 @@
         <v>7.0</v>
       </c>
       <c r="F8" t="s">
-        <v>3334</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="9">
@@ -65478,7 +65490,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>3323</v>
+        <v>3327</v>
       </c>
       <c r="C9" t="n">
         <v>0.4760956175298805</v>
@@ -65490,7 +65502,7 @@
         <v>8.0</v>
       </c>
       <c r="F9" t="s">
-        <v>3335</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="10">
@@ -65498,7 +65510,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>3324</v>
+        <v>3328</v>
       </c>
       <c r="C10" t="n">
         <v>0.39622641509433965</v>
@@ -65510,7 +65522,7 @@
         <v>9.0</v>
       </c>
       <c r="F10" t="s">
-        <v>3336</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="11">
@@ -65518,19 +65530,19 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>3325</v>
+        <v>3329</v>
       </c>
       <c r="C11" t="n">
         <v>0.1719077568134172</v>
       </c>
       <c r="D11" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="E11" t="n">
         <v>10.0</v>
       </c>
       <c r="F11" t="s">
-        <v>3337</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="12">
@@ -65538,19 +65550,19 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>3326</v>
+        <v>3330</v>
       </c>
       <c r="C12" t="n">
         <v>0.1740041928721174</v>
       </c>
       <c r="D12" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="E12" t="n">
         <v>11.0</v>
       </c>
       <c r="F12" t="s">
-        <v>3338</v>
+        <v>3342</v>
       </c>
     </row>
   </sheetData>
@@ -71768,4 +71780,264 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
+    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <xsd:import namespace="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="46f3a809-46a3-44ee-a0f1-42a271529c86" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BCC9581-52F9-443A-9345-2E36468E7EE3}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74D45D14-5CDA-4955-90FD-48966BB4AD27}"/>
 </file>